--- a/biology/Botanique/Forêt_de_Vimy/Forêt_de_Vimy.xlsx
+++ b/biology/Botanique/Forêt_de_Vimy/Forêt_de_Vimy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Vimy</t>
+          <t>Forêt_de_Vimy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Forêt de Vimy est une forêt domaniale située dans le département du Pas-de-Calais, au nord d'Arras. C'est une forêt de guerre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Vimy</t>
+          <t>Forêt_de_Vimy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Forêt de Vimy s'étend sur le territoire des communes de : Angres, Bailleul-Sir-Berthoult, Farbus, Givenchy-en-Gohelle, Neuville-Saint-Vaast, Souchez,  Thélus et Vimy[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Forêt de Vimy s'étend sur le territoire des communes de : Angres, Bailleul-Sir-Berthoult, Farbus, Givenchy-en-Gohelle, Neuville-Saint-Vaast, Souchez,  Thélus et Vimy.
 La forêt de Vimy forme un ensemble boisé avec le coteau boisé de Farbus et bois de l’Abîme.
-Une zone boisée, dans le territoire canadien est interdite au public parce que non encore  déminée. La présence d'obus chimiques non explosés enfouis dans le sol en fait un territoire à risque où seuls peuvent pâturer les moutons[2].
+Une zone boisée, dans le territoire canadien est interdite au public parce que non encore  déminée. La présence d'obus chimiques non explosés enfouis dans le sol en fait un territoire à risque où seuls peuvent pâturer les moutons.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Vimy</t>
+          <t>Forêt_de_Vimy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,15 +561,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Principales essences d'arbres
-frêne (36 %)
+          <t>Principales essences d'arbres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>frêne (36 %)
 hêtre (28 %)
 érable sycomore (17 %)
 chêne pédonculé (5 %)
 chêne sessile (2 %)
 merisier (3 %)
 autres feuillus (8 %)
-résineux (1 %), sur le territoire canadien[3].</t>
+résineux (1 %), sur le territoire canadien.</t>
         </is>
       </c>
     </row>
